--- a/attachments/UserGroups.xlsx
+++ b/attachments/UserGroups.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User Groups (CCBPRD)" sheetId="2" r:id="rId1"/>
+    <sheet name="To Do Roles (CCBPRD)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="485">
   <si>
     <t>Description</t>
   </si>
@@ -608,6 +609,867 @@
   </si>
   <si>
     <t>User Group</t>
+  </si>
+  <si>
+    <t>SPECIAL_BATCH_PRIVIL</t>
+  </si>
+  <si>
+    <t>Special Batch Privileged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_FW               </t>
+  </si>
+  <si>
+    <t>Field Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_PWR_MTR_SERVICES </t>
+  </si>
+  <si>
+    <t>Power Meter Services Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUAMETER </t>
+  </si>
+  <si>
+    <t>A meter configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUCOM    </t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUCYCBIL </t>
+  </si>
+  <si>
+    <t>Cycle Billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUER3    </t>
+  </si>
+  <si>
+    <t>Multi family - Rate ER3-RMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUEV     </t>
+  </si>
+  <si>
+    <t>Electric Vehicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUGOVT   </t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUIND    </t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUKVAR   </t>
+  </si>
+  <si>
+    <t>Large Meters (KVAR)</t>
+  </si>
+  <si>
+    <t>ASULIFLINE</t>
+  </si>
+  <si>
+    <t>Lifeline</t>
+  </si>
+  <si>
+    <t>ASULIFSUPP</t>
+  </si>
+  <si>
+    <t>Life Support</t>
+  </si>
+  <si>
+    <t>ASULLAGRMT</t>
+  </si>
+  <si>
+    <t>Landlord Agreements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASULOOP   </t>
+  </si>
+  <si>
+    <t>Loop billing accounts</t>
+  </si>
+  <si>
+    <t>ASULOWINCM</t>
+  </si>
+  <si>
+    <t>Low Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUMHOME  </t>
+  </si>
+  <si>
+    <t>Mobile Homes</t>
+  </si>
+  <si>
+    <t>ASUMTRSURV</t>
+  </si>
+  <si>
+    <t>Meter Survey Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUMUNI   </t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNETMTR </t>
+  </si>
+  <si>
+    <t>Net Metering</t>
+  </si>
+  <si>
+    <t>ASUPREMMGT</t>
+  </si>
+  <si>
+    <t>ASU Premise management</t>
+  </si>
+  <si>
+    <t>ASUPSUBMTR</t>
+  </si>
+  <si>
+    <t>Private Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASURECWTR </t>
+  </si>
+  <si>
+    <t>Schedule D Reclaimed Water - Rate WD-RWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUREINST </t>
+  </si>
+  <si>
+    <t>Reinstate/signed in error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASURES    </t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUSCHEDF </t>
+  </si>
+  <si>
+    <t>Schedule F - Rate WF-PSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUSEWER  </t>
+  </si>
+  <si>
+    <t>Sewer</t>
+  </si>
+  <si>
+    <t>ASUSPECBIL</t>
+  </si>
+  <si>
+    <t>Specialized Billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUSRFBIF </t>
+  </si>
+  <si>
+    <t>SRF / BIF</t>
+  </si>
+  <si>
+    <t>ASUSUMBILL</t>
+  </si>
+  <si>
+    <t>Summary Billing Accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUSWAT   </t>
+  </si>
+  <si>
+    <t>Swat team (Generic role to be used by triage team)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILL_CSR  </t>
+  </si>
+  <si>
+    <t>Billing Customer Service Representative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILL_SUPV </t>
+  </si>
+  <si>
+    <t>Billing Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOSLEADS  </t>
+  </si>
+  <si>
+    <t>Bureau of Sanitation Leads (Sewer &amp; Solids)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOSSEWER  </t>
+  </si>
+  <si>
+    <t>Bureau of Sanitation - Sewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOSSOLIDS </t>
+  </si>
+  <si>
+    <t>Bureau of Sanitation - Solids</t>
+  </si>
+  <si>
+    <t>BOS_SUPMGR</t>
+  </si>
+  <si>
+    <t>Bureau of Sanitation - Sewer &amp; Solids Supervisor / Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMU      </t>
+  </si>
+  <si>
+    <t>Commercial Account Management Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM-FWERR  </t>
+  </si>
+  <si>
+    <t>Role Id for batch error during extraction of FI data to flat</t>
+  </si>
+  <si>
+    <t>CMMRRDLEAD</t>
+  </si>
+  <si>
+    <t>Meter Reading Team Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_ASU    </t>
+  </si>
+  <si>
+    <t>Account Services Unit</t>
+  </si>
+  <si>
+    <t>CM_ASULEAD</t>
+  </si>
+  <si>
+    <t>Account Services Unit - CSR Leads</t>
+  </si>
+  <si>
+    <t>CM_BILLING</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>CM_CAMUCSR</t>
+  </si>
+  <si>
+    <t>Commercial Account Management Unit CSR</t>
+  </si>
+  <si>
+    <t>CM_CAMUSPV</t>
+  </si>
+  <si>
+    <t>Commercial Account Management Unit Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_CCC    </t>
+  </si>
+  <si>
+    <t>Customer Contact Center</t>
+  </si>
+  <si>
+    <t>CM_CCCLEAD</t>
+  </si>
+  <si>
+    <t>Customer Contact Center Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_CSC    </t>
+  </si>
+  <si>
+    <t>Customer Service Center</t>
+  </si>
+  <si>
+    <t>CM_CSRSUPV</t>
+  </si>
+  <si>
+    <t>Customer Service Center Supervisor</t>
+  </si>
+  <si>
+    <t>CM_CYCBILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_E-TEAM </t>
+  </si>
+  <si>
+    <t>E-Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_FICSR  </t>
+  </si>
+  <si>
+    <t>Field Investigation in house CSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_FIMSP  </t>
+  </si>
+  <si>
+    <t>Field Investigation - Metro San Pedro Common To Do Role</t>
+  </si>
+  <si>
+    <t>CM_FIOPCSR</t>
+  </si>
+  <si>
+    <t>Field Operations Customer Service Representative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_FIOV   </t>
+  </si>
+  <si>
+    <t>Field Investigation - Owens Valley To Do Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_FIV    </t>
+  </si>
+  <si>
+    <t>Field Investigation - Valley Common To Do Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_FIWLA  </t>
+  </si>
+  <si>
+    <t>Field Investigation - West Los Angeles To Do Role</t>
+  </si>
+  <si>
+    <t>CM_FI_COLL</t>
+  </si>
+  <si>
+    <t>Field Collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_FLDINV </t>
+  </si>
+  <si>
+    <t>Field Investigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_FLDSVC </t>
+  </si>
+  <si>
+    <t>Field Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_FSO    </t>
+  </si>
+  <si>
+    <t>Financial System Organization</t>
+  </si>
+  <si>
+    <t>CM_ITSUPRT</t>
+  </si>
+  <si>
+    <t>IT Support</t>
+  </si>
+  <si>
+    <t>CM_MTRREAD</t>
+  </si>
+  <si>
+    <t>Meter Reading</t>
+  </si>
+  <si>
+    <t>CM_MTR_TST</t>
+  </si>
+  <si>
+    <t>Meter Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_REFREG </t>
+  </si>
+  <si>
+    <t>Refund Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_RPC    </t>
+  </si>
+  <si>
+    <t>Remittance Processing Center</t>
+  </si>
+  <si>
+    <t>CM_RSUCOOR</t>
+  </si>
+  <si>
+    <t>Revenue Security Unit Coordinator</t>
+  </si>
+  <si>
+    <t>CM_RSUSUPV</t>
+  </si>
+  <si>
+    <t>Revenue Security Unit Supervisor</t>
+  </si>
+  <si>
+    <t>CM_RSU_CSR</t>
+  </si>
+  <si>
+    <t>Revenue Security Unit CSR</t>
+  </si>
+  <si>
+    <t>CM_SAMUCSR</t>
+  </si>
+  <si>
+    <t>Specialized Account Management Unit CSR</t>
+  </si>
+  <si>
+    <t>CM_SAMUSPV</t>
+  </si>
+  <si>
+    <t>Specialized Account Management Unit Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_SAO    </t>
+  </si>
+  <si>
+    <t>System Administrative Office</t>
+  </si>
+  <si>
+    <t>CM_SPECBIL</t>
+  </si>
+  <si>
+    <t>CM_STLIMNT</t>
+  </si>
+  <si>
+    <t>Street Light Maintenance</t>
+  </si>
+  <si>
+    <t>CM_SUMBILL</t>
+  </si>
+  <si>
+    <t>Summary Billing</t>
+  </si>
+  <si>
+    <t>CM_SUPSVCS</t>
+  </si>
+  <si>
+    <t>Support Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM_WATER  </t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRC       </t>
+  </si>
+  <si>
+    <t>Commercial Resource Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRO       </t>
+  </si>
+  <si>
+    <t>Customer Relations Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSR       </t>
+  </si>
+  <si>
+    <t>Customer Service Representative</t>
+  </si>
+  <si>
+    <t>CTYATTYLSN</t>
+  </si>
+  <si>
+    <t>City Attorney Liaison</t>
+  </si>
+  <si>
+    <t>DEPAPPRVL1</t>
+  </si>
+  <si>
+    <t>Deposit Approval - Level 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1_DFLT   </t>
+  </si>
+  <si>
+    <t>System Default Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP16  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP17  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP18  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP19  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP20  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP21  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP22  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP23  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP24  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP25  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP26  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP27  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP28  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP29  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP30  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP31  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP32  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP33  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP34  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-MSP35  </t>
+  </si>
+  <si>
+    <t>Metro and San Pedro - Territory 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-V1     </t>
+  </si>
+  <si>
+    <t>Valley - Territory 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-V10    </t>
+  </si>
+  <si>
+    <t>Valley - Territory 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-V2     </t>
+  </si>
+  <si>
+    <t>Valley - Territory 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-V3     </t>
+  </si>
+  <si>
+    <t>Valley - Territory 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-V4     </t>
+  </si>
+  <si>
+    <t>Valley - Territory 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-V5     </t>
+  </si>
+  <si>
+    <t>Valley - Territory 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-V6     </t>
+  </si>
+  <si>
+    <t>Valley - Territory 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-V7     </t>
+  </si>
+  <si>
+    <t>Valley - Territory 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-V8     </t>
+  </si>
+  <si>
+    <t>Valley - Territory 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-V9     </t>
+  </si>
+  <si>
+    <t>Valley - Territory 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-WLA11  </t>
+  </si>
+  <si>
+    <t>West Los Angeles - Territory 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-WLA12  </t>
+  </si>
+  <si>
+    <t>West Los Angeles - Territory 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-WLA13  </t>
+  </si>
+  <si>
+    <t>West Los Angeles - Territory 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-WLA14  </t>
+  </si>
+  <si>
+    <t>West Los Angeles - Territory 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI-WLA15  </t>
+  </si>
+  <si>
+    <t>West Los Angeles - Territory 15</t>
+  </si>
+  <si>
+    <t>FIELD_SUPP</t>
+  </si>
+  <si>
+    <t>Field Support CSR</t>
+  </si>
+  <si>
+    <t>MISCADJTL1</t>
+  </si>
+  <si>
+    <t>Miscellaneous Adjusment - Level 1</t>
+  </si>
+  <si>
+    <t>MISCADJTL2</t>
+  </si>
+  <si>
+    <t>Miscellaneous Adjustment- Level 2</t>
+  </si>
+  <si>
+    <t>MISCADJTL3</t>
+  </si>
+  <si>
+    <t>Miscellaneous Adjustment- Level 3</t>
+  </si>
+  <si>
+    <t>MISCADJTL4</t>
+  </si>
+  <si>
+    <t>Miscellaneous Adjustment- Level 4</t>
+  </si>
+  <si>
+    <t>MISCADJTL5</t>
+  </si>
+  <si>
+    <t>Miscellaneous Adjustment- Level 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR-CSR    </t>
+  </si>
+  <si>
+    <t>Meter Read Customer Service Representative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR-SPVR   </t>
+  </si>
+  <si>
+    <t>Meter Read Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYFREEZE </t>
+  </si>
+  <si>
+    <t>Payment Freeze</t>
+  </si>
+  <si>
+    <t>PREMERACCT</t>
+  </si>
+  <si>
+    <t>Premier Accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMGTGRP </t>
+  </si>
+  <si>
+    <t>Premise Management Group</t>
+  </si>
+  <si>
+    <t>REFAPPRVL1</t>
+  </si>
+  <si>
+    <t>Refund Approval- Level 1</t>
+  </si>
+  <si>
+    <t>REFAPPRVL2</t>
+  </si>
+  <si>
+    <t>Refund Approval- Level 2</t>
+  </si>
+  <si>
+    <t>REFAPPRVL3</t>
+  </si>
+  <si>
+    <t>Refund Approval- Level 3</t>
+  </si>
+  <si>
+    <t>REFAPPRVL4</t>
+  </si>
+  <si>
+    <t>Refund Approval- Level 4</t>
+  </si>
+  <si>
+    <t>REFAPPRVL5</t>
+  </si>
+  <si>
+    <t>Refund Approval- Level 5</t>
+  </si>
+  <si>
+    <t>REFAPPRVL6</t>
+  </si>
+  <si>
+    <t>Refund Approval- Level 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFCR     </t>
+  </si>
+  <si>
+    <t>Refund Credit</t>
+  </si>
+  <si>
+    <t>RSU_INVSTG</t>
+  </si>
+  <si>
+    <t>Revenue Security Unit Investigator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMU      </t>
+  </si>
+  <si>
+    <t>Specialized Account Management Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCADJTL1  </t>
+  </si>
+  <si>
+    <t>Settlement Claim Adjustments - Level 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCADJTL2  </t>
+  </si>
+  <si>
+    <t>Settlement Claim Adjustments - Level 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCADJTL3  </t>
+  </si>
+  <si>
+    <t>Settlement Claim Adjustments - Level 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCADJTL4  </t>
+  </si>
+  <si>
+    <t>Settlement Claim Adjustments - Level 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMP       </t>
+  </si>
+  <si>
+    <t>Utilities Management Program</t>
+  </si>
+  <si>
+    <t>XFERADJUST</t>
+  </si>
+  <si>
+    <t>Transfer Adjustment Approval</t>
+  </si>
+  <si>
+    <t>To Do Role</t>
   </si>
 </sst>
 </file>
@@ -955,11 +1817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,813 +1840,1994 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>195</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>294</v>
+      </c>
+      <c r="B47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>299</v>
+      </c>
+      <c r="B50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>309</v>
+      </c>
+      <c r="B55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>311</v>
+      </c>
+      <c r="B56" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>315</v>
+      </c>
+      <c r="B58" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>317</v>
+      </c>
+      <c r="B59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>319</v>
+      </c>
+      <c r="B60" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>321</v>
+      </c>
+      <c r="B61" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>323</v>
+      </c>
+      <c r="B62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>327</v>
+      </c>
+      <c r="B64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>329</v>
+      </c>
+      <c r="B65" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>331</v>
+      </c>
+      <c r="B66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>333</v>
+      </c>
+      <c r="B67" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>335</v>
+      </c>
+      <c r="B68" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>339</v>
+      </c>
+      <c r="B70" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>341</v>
+      </c>
+      <c r="B71" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>342</v>
+      </c>
+      <c r="B72" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>344</v>
+      </c>
+      <c r="B73" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>350</v>
+      </c>
+      <c r="B76" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>354</v>
+      </c>
+      <c r="B78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>356</v>
+      </c>
+      <c r="B79" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B80" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>360</v>
+      </c>
+      <c r="B81" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>362</v>
+      </c>
+      <c r="B82" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>364</v>
+      </c>
+      <c r="B83" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>366</v>
+      </c>
+      <c r="B84" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>368</v>
+      </c>
+      <c r="B85" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>370</v>
+      </c>
+      <c r="B86" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>372</v>
+      </c>
+      <c r="B87" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>374</v>
+      </c>
+      <c r="B88" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>376</v>
+      </c>
+      <c r="B89" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>378</v>
+      </c>
+      <c r="B90" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>380</v>
+      </c>
+      <c r="B91" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>382</v>
+      </c>
+      <c r="B92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>384</v>
+      </c>
+      <c r="B93" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>386</v>
+      </c>
+      <c r="B94" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>388</v>
+      </c>
+      <c r="B95" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>390</v>
+      </c>
+      <c r="B96" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>392</v>
+      </c>
+      <c r="B97" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>394</v>
+      </c>
+      <c r="B98" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>396</v>
+      </c>
+      <c r="B99" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>398</v>
+      </c>
+      <c r="B100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>400</v>
+      </c>
+      <c r="B101" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>402</v>
+      </c>
+      <c r="B102" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>404</v>
+      </c>
+      <c r="B103" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>406</v>
+      </c>
+      <c r="B104" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>408</v>
+      </c>
+      <c r="B105" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>410</v>
+      </c>
+      <c r="B106" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>412</v>
+      </c>
+      <c r="B107" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>414</v>
+      </c>
+      <c r="B108" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>416</v>
+      </c>
+      <c r="B109" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>418</v>
+      </c>
+      <c r="B110" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>420</v>
+      </c>
+      <c r="B111" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>422</v>
+      </c>
+      <c r="B112" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>424</v>
+      </c>
+      <c r="B113" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>426</v>
+      </c>
+      <c r="B114" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>428</v>
+      </c>
+      <c r="B115" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>430</v>
+      </c>
+      <c r="B116" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>432</v>
+      </c>
+      <c r="B117" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>434</v>
+      </c>
+      <c r="B118" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>436</v>
+      </c>
+      <c r="B119" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>438</v>
+      </c>
+      <c r="B120" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>440</v>
+      </c>
+      <c r="B121" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>442</v>
+      </c>
+      <c r="B122" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>444</v>
+      </c>
+      <c r="B123" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>446</v>
+      </c>
+      <c r="B124" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>448</v>
+      </c>
+      <c r="B125" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>450</v>
+      </c>
+      <c r="B126" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>452</v>
+      </c>
+      <c r="B127" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>454</v>
+      </c>
+      <c r="B128" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>456</v>
+      </c>
+      <c r="B129" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>458</v>
+      </c>
+      <c r="B130" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>460</v>
+      </c>
+      <c r="B131" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>462</v>
+      </c>
+      <c r="B132" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>464</v>
+      </c>
+      <c r="B133" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>466</v>
+      </c>
+      <c r="B134" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>468</v>
+      </c>
+      <c r="B135" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>470</v>
+      </c>
+      <c r="B136" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>472</v>
+      </c>
+      <c r="B137" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>474</v>
+      </c>
+      <c r="B138" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>476</v>
+      </c>
+      <c r="B139" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>478</v>
+      </c>
+      <c r="B140" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>480</v>
+      </c>
+      <c r="B141" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>482</v>
+      </c>
+      <c r="B142" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>